--- a/i_codebooks/D4_analytical_dataset.xlsx
+++ b/i_codebooks/D4_analytical_dataset.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>medatata_name</t>
   </si>
@@ -173,9 +173,6 @@
     <t>binary</t>
   </si>
   <si>
-    <t>episode of bleeding (while in the source population), both 'broad' and 'narrow'</t>
-  </si>
-  <si>
     <t>1 = andexanet
 2a = andexanet precovid
 2b = andexanet covid
@@ -230,6 +227,12 @@
   </si>
   <si>
     <t>covariate_26</t>
+  </si>
+  <si>
+    <t>episode of bleeding (while in the source population)</t>
+  </si>
+  <si>
+    <t>whether the bleeding is identified with the 'narrow' strategy or with the 'possible' strategy</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -526,6 +529,9 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -854,7 +860,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -892,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.8">
@@ -944,16 +950,16 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="48" style="3" customWidth="1"/>
     <col min="4" max="4" width="43.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="34.109375" style="3" customWidth="1"/>
@@ -1064,7 +1070,7 @@
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1077,7 +1083,7 @@
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1093,6 +1099,9 @@
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
@@ -1102,105 +1111,105 @@
         <v>41</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="28.8">
       <c r="A9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="28.8">
       <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="28.8">
       <c r="A11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="28.8">
       <c r="A12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="28.8">
       <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.8">
       <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.8">
       <c r="A15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1221,7 +1230,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>42</v>
@@ -1286,15 +1295,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1539,6 +1539,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1552,14 +1561,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7FC829-F037-49D5-9D9F-9F4592863FCD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1574,6 +1575,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/i_codebooks/D4_analytical_dataset.xlsx
+++ b/i_codebooks/D4_analytical_dataset.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosgin2\Documents\emorragie_gravi\i_codebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Documents\Git repositories\Work\emorragie_gravi\i_codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE57BBB-5018-4DEF-8D70-AA31F21E0474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="6900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -18,24 +19,11 @@
     <sheet name="Example" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>medatata_name</t>
   </si>
@@ -234,11 +222,14 @@
   <si>
     <t>whether the bleeding is identified with the 'narrow' strategy or with the 'possible' strategy</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -534,7 +525,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -856,17 +847,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="144.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="144.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -877,7 +868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -885,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6">
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
@@ -893,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -901,7 +892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="46.8">
+    <row r="5" spans="1:2" ht="47.25">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -909,7 +900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6">
+    <row r="6" spans="1:2" ht="31.5">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -917,22 +908,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6">
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -946,29 +937,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A9" sqref="A9:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="48" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="83.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="4" max="4" width="43.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="83.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="31.2">
+    <row r="1" spans="1:22" ht="31.5">
       <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1005,7 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" ht="15.6">
+    <row r="2" spans="1:22" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1031,7 @@
       <c r="U2" s="25"/>
       <c r="V2" s="25"/>
     </row>
-    <row r="3" spans="1:22" ht="15.6">
+    <row r="3" spans="1:22" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -1066,7 +1057,7 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
     </row>
-    <row r="4" spans="1:22" ht="36.6">
+    <row r="4" spans="1:22" ht="36.75">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1079,7 +1070,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:22" ht="72">
+    <row r="5" spans="1:22" ht="75">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1095,7 +1086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8">
+    <row r="7" spans="1:22" ht="30">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1106,7 +1097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="72">
+    <row r="8" spans="1:22" ht="75">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1105,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="28.8">
+    <row r="9" spans="1:22" ht="30">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -1128,7 +1119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="28.8">
+    <row r="10" spans="1:22" ht="30">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1142,7 +1133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="28.8">
+    <row r="11" spans="1:22" ht="30">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -1156,7 +1147,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="28.8">
+    <row r="12" spans="1:22" ht="30">
       <c r="A12" s="3" t="s">
         <v>48</v>
       </c>
@@ -1170,7 +1161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8">
+    <row r="13" spans="1:22" ht="30">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.8">
+    <row r="14" spans="1:22" ht="30">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1198,7 +1189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="28.8">
+    <row r="15" spans="1:22" ht="30">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1243,22 +1234,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.109375" customWidth="1"/>
-    <col min="2" max="2" width="72.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
@@ -1278,23 +1269,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1539,28 +1557,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7FC829-F037-49D5-9D9F-9F4592863FCD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1577,29 +1599,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/i_codebooks/D4_analytical_dataset.xlsx
+++ b/i_codebooks/D4_analytical_dataset.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>medatata_name</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>character</t>
-  </si>
-  <si>
-    <t>ageband</t>
   </si>
   <si>
     <t>parameter in the variable name</t>
@@ -173,13 +170,6 @@
     <t>binary</t>
   </si>
   <si>
-    <t>1 = andexanet
-2a = andexanet precovid
-2b = andexanet covid
-2c = andexanet postcovid
-3 = guidelines</t>
-  </si>
-  <si>
     <t>outcome_DIC</t>
   </si>
   <si>
@@ -233,6 +223,57 @@
   </si>
   <si>
     <t>whether the bleeding is identified with the 'narrow' strategy or with the 'possible' strategy</t>
+  </si>
+  <si>
+    <t>outcome_THROM</t>
+  </si>
+  <si>
+    <t>all thrombotic events</t>
+  </si>
+  <si>
+    <t>outcome_AMI OR outcome_IS OR outcome_VTE OR outcome_TIA OR outcome_PE</t>
+  </si>
+  <si>
+    <t>1a = preandexanet precovid
+1b = preandexanet covid
+1c = preandexanet postcovid
+2 = andexanet
+3 = guidelines</t>
+  </si>
+  <si>
+    <t>date when the bleeding took place</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>death_date</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>age at date_bleeding</t>
+  </si>
+  <si>
+    <t>ageband at date_bleeding</t>
+  </si>
+  <si>
+    <t>number_previous_bleedings</t>
+  </si>
+  <si>
+    <t>number of episodes of bleeding in the previous 3 years</t>
+  </si>
+  <si>
+    <t>days_since_most_recent_bleeding</t>
+  </si>
+  <si>
+    <t>number of days since the most recent episode of bleeding in the previous 3 years</t>
+  </si>
+  <si>
+    <t>0 = "none
+1 = "one"
+2 = "2+"</t>
   </si>
 </sst>
 </file>
@@ -460,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,6 +572,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6">
@@ -890,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6">
@@ -898,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.8">
@@ -906,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6">
@@ -919,7 +972,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.6">
       <c r="A7" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6">
@@ -947,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:A14"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -970,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="31.2">
       <c r="A1" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>10</v>
@@ -1016,7 +1069,7 @@
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1042,7 +1095,7 @@
     </row>
     <row r="3" spans="1:22" ht="15.6">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1066,174 +1119,313 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
     </row>
-    <row r="4" spans="1:22" ht="36.6">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:22" ht="15.6">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.6">
+      <c r="A5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.6">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" ht="36.6">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" ht="72">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:22" ht="72">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="28.8">
-      <c r="A7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="72">
-      <c r="A8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="28.8">
-      <c r="A9" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="28.8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="28.8">
       <c r="A11" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="28.8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="72">
       <c r="A12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="28.8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="43.2">
       <c r="A13" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.8">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="28.8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="28.8">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.8">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="28.8">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.8">
+      <c r="A23" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="28.8">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="28.8">
+      <c r="A25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1260,16 +1452,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18">
       <c r="A1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1295,6 +1487,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -1539,7 +1743,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1548,19 +1752,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7FC829-F037-49D5-9D9F-9F4592863FCD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1579,27 +1788,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3594D7-89C9-4FB7-87F1-388B97141296}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE8A1FD8-B49B-4DD5-B035-18D91695717A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8029070a-695f-410c-a424-24d0683063af"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>